--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Lamp2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Lamp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -531,25 +531,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H2">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I2">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J2">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.53837466666666</v>
+        <v>47.13631833333333</v>
       </c>
       <c r="N2">
-        <v>151.615124</v>
+        <v>141.408955</v>
       </c>
       <c r="O2">
-        <v>0.07152117312900876</v>
+        <v>0.05713678551147761</v>
       </c>
       <c r="P2">
-        <v>0.07335434150799851</v>
+        <v>0.05843911332169659</v>
       </c>
       <c r="Q2">
-        <v>40.91809181861866</v>
+        <v>2.347325804575555</v>
       </c>
       <c r="R2">
-        <v>368.262826367568</v>
+        <v>21.12593224118</v>
       </c>
       <c r="S2">
-        <v>0.02413781588427879</v>
+        <v>0.002742947891512489</v>
       </c>
       <c r="T2">
-        <v>0.02954671798407214</v>
+        <v>0.002805468337651004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H3">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I3">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J3">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>576.797005</v>
       </c>
       <c r="O3">
-        <v>0.2720915787721727</v>
+        <v>0.2330568580918209</v>
       </c>
       <c r="P3">
-        <v>0.279065592991638</v>
+        <v>0.2383689600054692</v>
       </c>
       <c r="Q3">
-        <v>155.6667447720733</v>
+        <v>9.574573928775555</v>
       </c>
       <c r="R3">
-        <v>1401.00070294866</v>
+        <v>86.17116535898001</v>
       </c>
       <c r="S3">
-        <v>0.0918287011346799</v>
+        <v>0.01118828810166562</v>
       </c>
       <c r="T3">
-        <v>0.1124060581238086</v>
+        <v>0.01144330452607777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H4">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I4">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J4">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>194.1083576666666</v>
+        <v>277.4609476666666</v>
       </c>
       <c r="N4">
-        <v>582.325073</v>
+        <v>832.3828429999999</v>
       </c>
       <c r="O4">
-        <v>0.274699325928696</v>
+        <v>0.3363272146656126</v>
       </c>
       <c r="P4">
-        <v>0.2817401796506275</v>
+        <v>0.3439931741883884</v>
       </c>
       <c r="Q4">
-        <v>157.1586671346707</v>
+        <v>13.81718524586978</v>
       </c>
       <c r="R4">
-        <v>1414.428004212036</v>
+        <v>124.354667212828</v>
       </c>
       <c r="S4">
-        <v>0.09270879465081074</v>
+        <v>0.01614595599082124</v>
       </c>
       <c r="T4">
-        <v>0.1134833666526911</v>
+        <v>0.016513973325384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H5">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I5">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J5">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.9766425</v>
+        <v>55.1541005</v>
       </c>
       <c r="N5">
-        <v>105.953285</v>
+        <v>110.308201</v>
       </c>
       <c r="O5">
-        <v>0.0749717743205375</v>
+        <v>0.06685562474484689</v>
       </c>
       <c r="P5">
-        <v>0.05126225700138132</v>
+        <v>0.04558631706564471</v>
       </c>
       <c r="Q5">
-        <v>42.89222074027</v>
+        <v>2.746600666099333</v>
       </c>
       <c r="R5">
-        <v>257.35332444162</v>
+        <v>16.479603996596</v>
       </c>
       <c r="S5">
-        <v>0.02530236580155933</v>
+        <v>0.003209517183860306</v>
       </c>
       <c r="T5">
-        <v>0.02064815005778066</v>
+        <v>0.002188448145230568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.809644</v>
+        <v>0.04979866666666666</v>
       </c>
       <c r="H6">
-        <v>2.428932</v>
+        <v>0.149396</v>
       </c>
       <c r="I6">
-        <v>0.3374918898595159</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="J6">
-        <v>0.4027944001221849</v>
+        <v>0.04800668898255549</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>216.7321216666667</v>
+        <v>252.9561923333333</v>
       </c>
       <c r="N6">
-        <v>650.196365</v>
+        <v>758.8685770000001</v>
       </c>
       <c r="O6">
-        <v>0.3067161478495851</v>
+        <v>0.3066235169862421</v>
       </c>
       <c r="P6">
-        <v>0.3145776288483546</v>
+        <v>0.313612435418801</v>
       </c>
       <c r="Q6">
-        <v>175.4758619146867</v>
+        <v>12.59688110327689</v>
       </c>
       <c r="R6">
-        <v>1579.28275723218</v>
+        <v>113.371929929492</v>
       </c>
       <c r="S6">
-        <v>0.1035142123881872</v>
+        <v>0.01471997981469584</v>
       </c>
       <c r="T6">
-        <v>0.1267101073038323</v>
+        <v>0.01505549464821215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H7">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I7">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J7">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.53837466666666</v>
+        <v>47.13631833333333</v>
       </c>
       <c r="N7">
-        <v>151.615124</v>
+        <v>141.408955</v>
       </c>
       <c r="O7">
-        <v>0.07152117312900876</v>
+        <v>0.05713678551147761</v>
       </c>
       <c r="P7">
-        <v>0.07335434150799851</v>
+        <v>0.05843911332169659</v>
       </c>
       <c r="Q7">
-        <v>12.975828772416</v>
+        <v>38.16363732067333</v>
       </c>
       <c r="R7">
-        <v>116.782458951744</v>
+        <v>343.47273588606</v>
       </c>
       <c r="S7">
-        <v>0.007654515446196534</v>
+        <v>0.04459579846868198</v>
       </c>
       <c r="T7">
-        <v>0.009369771079445399</v>
+        <v>0.04561227757307644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H8">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I8">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J8">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>576.797005</v>
       </c>
       <c r="O8">
-        <v>0.2720915787721727</v>
+        <v>0.2330568580918209</v>
       </c>
       <c r="P8">
-        <v>0.279065592991638</v>
+        <v>0.2383689600054692</v>
       </c>
       <c r="Q8">
-        <v>49.36459487592</v>
+        <v>155.6667447720733</v>
       </c>
       <c r="R8">
-        <v>444.28135388328</v>
+        <v>1401.00070294866</v>
       </c>
       <c r="S8">
-        <v>0.02912045624216487</v>
+        <v>0.181903069662875</v>
       </c>
       <c r="T8">
-        <v>0.03564588910114089</v>
+        <v>0.1860492151673079</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H9">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I9">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J9">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>194.1083576666666</v>
+        <v>277.4609476666666</v>
       </c>
       <c r="N9">
-        <v>582.325073</v>
+        <v>832.3828429999999</v>
       </c>
       <c r="O9">
-        <v>0.274699325928696</v>
+        <v>0.3363272146656126</v>
       </c>
       <c r="P9">
-        <v>0.2817401796506275</v>
+        <v>0.3439931741883884</v>
       </c>
       <c r="Q9">
-        <v>49.83770904763199</v>
+        <v>224.6445915126307</v>
       </c>
       <c r="R9">
-        <v>448.5393814286879</v>
+        <v>2021.801323613676</v>
       </c>
       <c r="S9">
-        <v>0.02939954899213105</v>
+        <v>0.2625065542363746</v>
       </c>
       <c r="T9">
-        <v>0.03598752211442529</v>
+        <v>0.2684899077429891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H10">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I10">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J10">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.9766425</v>
+        <v>55.1541005</v>
       </c>
       <c r="N10">
-        <v>105.953285</v>
+        <v>110.308201</v>
       </c>
       <c r="O10">
-        <v>0.0749717743205375</v>
+        <v>0.06685562474484689</v>
       </c>
       <c r="P10">
-        <v>0.05126225700138132</v>
+        <v>0.04558631706564471</v>
       </c>
       <c r="Q10">
-        <v>13.60185891516</v>
+        <v>44.655186545222</v>
       </c>
       <c r="R10">
-        <v>81.61115349095999</v>
+        <v>267.931119271332</v>
       </c>
       <c r="S10">
-        <v>0.008023814200169406</v>
+        <v>0.05218144389694625</v>
       </c>
       <c r="T10">
-        <v>0.006547882555339507</v>
+        <v>0.03558054921344062</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.256752</v>
+        <v>0.809644</v>
       </c>
       <c r="H11">
-        <v>0.7702559999999999</v>
+        <v>2.428932</v>
       </c>
       <c r="I11">
-        <v>0.1070244671796622</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="J11">
-        <v>0.1277330132998839</v>
+        <v>0.7805094050963647</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>216.7321216666667</v>
+        <v>252.9561923333333</v>
       </c>
       <c r="N11">
-        <v>650.196365</v>
+        <v>758.8685770000001</v>
       </c>
       <c r="O11">
-        <v>0.3067161478495851</v>
+        <v>0.3066235169862421</v>
       </c>
       <c r="P11">
-        <v>0.3145776288483546</v>
+        <v>0.313612435418801</v>
       </c>
       <c r="Q11">
-        <v>55.64640570216</v>
+        <v>204.8044633855293</v>
       </c>
       <c r="R11">
-        <v>500.81765131944</v>
+        <v>1843.240170469764</v>
       </c>
       <c r="S11">
-        <v>0.03282613229900033</v>
+        <v>0.2393225388314869</v>
       </c>
       <c r="T11">
-        <v>0.04018194844953282</v>
+        <v>0.2447774553995505</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H12">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I12">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J12">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.53837466666666</v>
+        <v>47.13631833333333</v>
       </c>
       <c r="N12">
-        <v>151.615124</v>
+        <v>141.408955</v>
       </c>
       <c r="O12">
-        <v>0.07152117312900876</v>
+        <v>0.05713678551147761</v>
       </c>
       <c r="P12">
-        <v>0.07335434150799851</v>
+        <v>0.05843911332169659</v>
       </c>
       <c r="Q12">
-        <v>58.96845352212733</v>
+        <v>1.713358035098333</v>
       </c>
       <c r="R12">
-        <v>353.810721132764</v>
+        <v>15.420222315885</v>
       </c>
       <c r="S12">
-        <v>0.03478582726700112</v>
+        <v>0.002002130168985531</v>
       </c>
       <c r="T12">
-        <v>0.02838718667361976</v>
+        <v>0.002047765039330564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H13">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I13">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J13">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>576.797005</v>
       </c>
       <c r="O13">
-        <v>0.2720915787721727</v>
+        <v>0.2330568580918209</v>
       </c>
       <c r="P13">
-        <v>0.279065592991638</v>
+        <v>0.2383689600054692</v>
       </c>
       <c r="Q13">
-        <v>224.3366392725092</v>
+        <v>6.988664778248333</v>
       </c>
       <c r="R13">
-        <v>1346.019835635055</v>
+        <v>62.897983004235</v>
       </c>
       <c r="S13">
-        <v>0.1323374638011283</v>
+        <v>0.00816654564126436</v>
       </c>
       <c r="T13">
-        <v>0.1079947951216251</v>
+        <v>0.008352687010731229</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H14">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I14">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J14">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>194.1083576666666</v>
+        <v>277.4609476666666</v>
       </c>
       <c r="N14">
-        <v>582.325073</v>
+        <v>832.3828429999999</v>
       </c>
       <c r="O14">
-        <v>0.274699325928696</v>
+        <v>0.3363272146656126</v>
       </c>
       <c r="P14">
-        <v>0.2817401796506275</v>
+        <v>0.3439931741883884</v>
       </c>
       <c r="Q14">
-        <v>226.4866993214338</v>
+        <v>10.08542798673566</v>
       </c>
       <c r="R14">
-        <v>1358.920195928603</v>
+        <v>90.76885188062099</v>
       </c>
       <c r="S14">
-        <v>0.1336057964944303</v>
+        <v>0.01178524232865059</v>
       </c>
       <c r="T14">
-        <v>0.1090298257578858</v>
+        <v>0.01205386522539525</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H15">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I15">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J15">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.9766425</v>
+        <v>55.1541005</v>
       </c>
       <c r="N15">
-        <v>105.953285</v>
+        <v>110.308201</v>
       </c>
       <c r="O15">
-        <v>0.0749717743205375</v>
+        <v>0.06685562474484689</v>
       </c>
       <c r="P15">
-        <v>0.05126225700138132</v>
+        <v>0.04558631706564471</v>
       </c>
       <c r="Q15">
-        <v>61.81343784053376</v>
+        <v>2.0047963990745</v>
       </c>
       <c r="R15">
-        <v>247.253751362135</v>
+        <v>12.028778394447</v>
       </c>
       <c r="S15">
-        <v>0.03646409975281893</v>
+        <v>0.002342688026107893</v>
       </c>
       <c r="T15">
-        <v>0.01983783411988791</v>
+        <v>0.001597390190453277</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.1668055</v>
+        <v>0.036349</v>
       </c>
       <c r="H16">
-        <v>2.333611</v>
+        <v>0.109047</v>
       </c>
       <c r="I16">
-        <v>0.4863710387447784</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="J16">
-        <v>0.3869871379122726</v>
+        <v>0.0350410011879885</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>216.7321216666667</v>
+        <v>252.9561923333333</v>
       </c>
       <c r="N16">
-        <v>650.196365</v>
+        <v>758.8685770000001</v>
       </c>
       <c r="O16">
-        <v>0.3067161478495851</v>
+        <v>0.3066235169862421</v>
       </c>
       <c r="P16">
-        <v>0.3145776288483546</v>
+        <v>0.313612435418801</v>
       </c>
       <c r="Q16">
-        <v>252.8842315873359</v>
+        <v>9.194704635124333</v>
       </c>
       <c r="R16">
-        <v>1517.305389524015</v>
+        <v>82.75234171611901</v>
       </c>
       <c r="S16">
-        <v>0.1491778514293997</v>
+        <v>0.01074439502298012</v>
       </c>
       <c r="T16">
-        <v>0.1217374962392539</v>
+        <v>0.01098929372207817</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H17">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I17">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J17">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.53837466666666</v>
+        <v>47.13631833333333</v>
       </c>
       <c r="N17">
-        <v>151.615124</v>
+        <v>141.408955</v>
       </c>
       <c r="O17">
-        <v>0.07152117312900876</v>
+        <v>0.05713678551147761</v>
       </c>
       <c r="P17">
-        <v>0.07335434150799851</v>
+        <v>0.05843911332169659</v>
       </c>
       <c r="Q17">
-        <v>8.379329904232888</v>
+        <v>6.671485951626666</v>
       </c>
       <c r="R17">
-        <v>75.41396913809599</v>
+        <v>60.04337356463999</v>
       </c>
       <c r="S17">
-        <v>0.004943014531532297</v>
+        <v>0.007795908982297616</v>
       </c>
       <c r="T17">
-        <v>0.006050665770861194</v>
+        <v>0.007973602371638579</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1523,7 +1523,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H18">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I18">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J18">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>576.797005</v>
       </c>
       <c r="O18">
-        <v>0.2720915787721727</v>
+        <v>0.2330568580918209</v>
       </c>
       <c r="P18">
-        <v>0.279065592991638</v>
+        <v>0.2383689600054692</v>
       </c>
       <c r="Q18">
-        <v>31.87790416389111</v>
+        <v>27.21251363322667</v>
       </c>
       <c r="R18">
-        <v>286.90113747502</v>
+        <v>244.91262269904</v>
       </c>
       <c r="S18">
-        <v>0.01880495759419956</v>
+        <v>0.03179895468601592</v>
       </c>
       <c r="T18">
-        <v>0.02301885064506331</v>
+        <v>0.03252375330135231</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H19">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I19">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J19">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>194.1083576666666</v>
+        <v>277.4609476666666</v>
       </c>
       <c r="N19">
-        <v>582.325073</v>
+        <v>832.3828429999999</v>
       </c>
       <c r="O19">
-        <v>0.274699325928696</v>
+        <v>0.3363272146656126</v>
       </c>
       <c r="P19">
-        <v>0.2817401796506275</v>
+        <v>0.3439931741883884</v>
       </c>
       <c r="Q19">
-        <v>32.18342451227689</v>
+        <v>39.27071268894933</v>
       </c>
       <c r="R19">
-        <v>289.650820610492</v>
+        <v>353.4364142005439</v>
       </c>
       <c r="S19">
-        <v>0.01898518579132386</v>
+        <v>0.04588946210976615</v>
       </c>
       <c r="T19">
-        <v>0.02323946512562524</v>
+        <v>0.04693542789461999</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H20">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I20">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J20">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>52.9766425</v>
+        <v>55.1541005</v>
       </c>
       <c r="N20">
-        <v>105.953285</v>
+        <v>110.308201</v>
       </c>
       <c r="O20">
-        <v>0.0749717743205375</v>
+        <v>0.06685562474484689</v>
       </c>
       <c r="P20">
-        <v>0.05126225700138132</v>
+        <v>0.04558631706564471</v>
       </c>
       <c r="Q20">
-        <v>8.783597962023332</v>
+        <v>7.806290768367999</v>
       </c>
       <c r="R20">
-        <v>52.70158777214</v>
+        <v>46.837744610208</v>
       </c>
       <c r="S20">
-        <v>0.005181494565989831</v>
+        <v>0.009121975637932453</v>
       </c>
       <c r="T20">
-        <v>0.004228390268373232</v>
+        <v>0.00621992951652026</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1658013333333333</v>
+        <v>0.141536</v>
       </c>
       <c r="H21">
-        <v>0.497404</v>
+        <v>0.424608</v>
       </c>
       <c r="I21">
-        <v>0.06911260421604336</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="J21">
-        <v>0.0824854486656585</v>
+        <v>0.1364429047330914</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>216.7321216666667</v>
+        <v>252.9561923333333</v>
       </c>
       <c r="N21">
-        <v>650.196365</v>
+        <v>758.8685770000001</v>
       </c>
       <c r="O21">
-        <v>0.3067161478495851</v>
+        <v>0.3066235169862421</v>
       </c>
       <c r="P21">
-        <v>0.3145776288483546</v>
+        <v>0.313612435418801</v>
       </c>
       <c r="Q21">
-        <v>35.93447474849555</v>
+        <v>35.80240763809067</v>
       </c>
       <c r="R21">
-        <v>323.41027273646</v>
+        <v>322.221668742816</v>
       </c>
       <c r="S21">
-        <v>0.02119795173299781</v>
+        <v>0.04183660331707926</v>
       </c>
       <c r="T21">
-        <v>0.02594807685573553</v>
+        <v>0.04279019164896024</v>
       </c>
     </row>
   </sheetData>
